--- a/medicine/Enfance/Jean-Pierre_Kerloc'h/Jean-Pierre_Kerloc'h.xlsx
+++ b/medicine/Enfance/Jean-Pierre_Kerloc'h/Jean-Pierre_Kerloc'h.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Pierre_Kerloc%27h</t>
+          <t>Jean-Pierre_Kerloc'h</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Pierre Kerloc'h est un auteur de livres pour enfants et d'ouvrages sur la recherche pédagogique, né le 24 avril 1935[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Pierre Kerloc'h est un auteur de livres pour enfants et d'ouvrages sur la recherche pédagogique, né le 24 avril 1935.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Pierre_Kerloc%27h</t>
+          <t>Jean-Pierre_Kerloc'h</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'origine bretonne et très attaché à ses racines, Jean-Pierre Kerloc'h vit, tantôt à Carcassonne, tantôt dans sa maison des Corbières, au milieu des pins et des vignes.
 Agrégé de Lettres Modernes, Jean-Pierre Kerloc'h a débuté comme instituteur, puis a continué sa carrière comme professeur, puis formateur d'enseignants à l'École Normale de Carcassonne et enfin à l'IUFM de Montpellier. 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-Pierre_Kerloc%27h</t>
+          <t>Jean-Pierre_Kerloc'h</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ti' Jean de La Réunion, éd. Sedrap jeunesse, 2017 (conte).
 Les Malheurs de Sophie, illustrations Christophe Besse, éd. Glénat jeunesse, 2017 (album jeunesse).
@@ -582,7 +598,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jean-Pierre_Kerloc%27h</t>
+          <t>Jean-Pierre_Kerloc'h</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,7 +616,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Guide des auteurs du livre de jeunesse français, 1989, p. 89.
